--- a/data/georgia_census/samegrelo/xobi/age_dependency.xlsx
+++ b/data/georgia_census/samegrelo/xobi/age_dependency.xlsx
@@ -1580,13 +1580,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F4DE515-A834-4F6D-AA6B-D531FB4F34E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3052712E-194E-4F69-B2E5-1E3EBE6BF090}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E07650E-8E2F-48F6-BED2-CC55D973BF2A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F12CD13-F49F-49B0-A8D9-2407ED7CA5D9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19EF7D5F-0101-4247-9B4E-4AEF66D8F83B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6034F12A-789A-44DF-86C0-AF52E4C77256}"/>
 </file>